--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>876429.3952530932</v>
+        <v>873957.9788878879</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.762916019699</v>
+        <v>292.9483245037815</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>304.7121159769014</v>
+        <v>304.7121159769013</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9594444284802</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>356.9051200979299</v>
+        <v>356.9051200979298</v>
       </c>
       <c r="G11" t="n">
         <v>361.1685289733151</v>
       </c>
       <c r="H11" t="n">
-        <v>12.16447399370446</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.17833490341432</v>
       </c>
       <c r="T11" t="n">
         <v>154.9001530341868</v>
@@ -1433,10 +1433,10 @@
         <v>299.2700430736314</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>319.7601750346874</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.267013012272</v>
+        <v>336.2670130122719</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>116.5622580060857</v>
       </c>
       <c r="C12" t="n">
-        <v>122.7375733445342</v>
+        <v>122.7375733445341</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>128.8758316158487</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1159644314913</v>
+        <v>85.14503878770971</v>
       </c>
       <c r="H12" t="n">
-        <v>79.52857571893145</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S12" t="n">
         <v>130.3073561089639</v>
       </c>
       <c r="T12" t="n">
-        <v>141.2152023473118</v>
+        <v>191.1861279910934</v>
       </c>
       <c r="U12" t="n">
         <v>225.7948325591512</v>
@@ -1512,7 +1512,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>155.8020595596959</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1531,22 +1531,22 @@
         <v>117.2758954548462</v>
       </c>
       <c r="D13" t="n">
-        <v>64.75191978993318</v>
+        <v>98.64454737443073</v>
       </c>
       <c r="E13" t="n">
-        <v>96.46303700278759</v>
+        <v>96.46303700278754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.45012237914966</v>
+        <v>95.45012237914962</v>
       </c>
       <c r="G13" t="n">
-        <v>116.1525483327497</v>
+        <v>82.25992074825346</v>
       </c>
       <c r="H13" t="n">
-        <v>95.65242628615749</v>
+        <v>95.65242628615745</v>
       </c>
       <c r="I13" t="n">
-        <v>49.31856925242187</v>
+        <v>49.31856925242182</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.35263283326788</v>
+        <v>43.35263283326783</v>
       </c>
       <c r="S13" t="n">
-        <v>141.5001467826913</v>
+        <v>141.5001467826912</v>
       </c>
       <c r="T13" t="n">
-        <v>169.9953226071735</v>
+        <v>169.9953226071734</v>
       </c>
       <c r="U13" t="n">
-        <v>236.246239782786</v>
+        <v>236.2462397827859</v>
       </c>
       <c r="V13" t="n">
         <v>202.1667176800464</v>
@@ -1591,10 +1591,10 @@
         <v>236.5520726928094</v>
       </c>
       <c r="X13" t="n">
-        <v>175.7387297452556</v>
+        <v>175.7387297452555</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.6137277083132</v>
+        <v>168.6137277083131</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.762916019699</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>315.3019661272259</v>
       </c>
       <c r="D14" t="n">
-        <v>304.7121159769014</v>
+        <v>304.7121159769013</v>
       </c>
       <c r="E14" t="n">
-        <v>331.9594444284803</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>356.9051200979299</v>
+        <v>334.5514784744852</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>361.1685289733151</v>
       </c>
       <c r="H14" t="n">
-        <v>246.8666554924501</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.17833490341431</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>154.9001530341868</v>
       </c>
       <c r="U14" t="n">
-        <v>162.6479901062789</v>
+        <v>201.0416646322118</v>
       </c>
       <c r="V14" t="n">
-        <v>277.7813328263534</v>
+        <v>277.7813328263533</v>
       </c>
       <c r="W14" t="n">
-        <v>299.2700430736315</v>
+        <v>299.2700430736314</v>
       </c>
       <c r="X14" t="n">
-        <v>319.7601750346875</v>
+        <v>319.7601750346874</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.2670130122721</v>
+        <v>336.2670130122719</v>
       </c>
     </row>
     <row r="15">
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>95.09828674960234</v>
+        <v>126.4999784445939</v>
       </c>
       <c r="G15" t="n">
-        <v>85.14503878770979</v>
+        <v>85.14503878770971</v>
       </c>
       <c r="H15" t="n">
-        <v>40.7510487890048</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S15" t="n">
-        <v>130.3073561089639</v>
+        <v>80.3364304651823</v>
       </c>
       <c r="T15" t="n">
         <v>191.1861279910934</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7948325591512</v>
+        <v>175.8239069153696</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.4892970634503</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.8610545381558</v>
+        <v>129.8610545381557</v>
       </c>
       <c r="C16" t="n">
-        <v>117.2758954548463</v>
+        <v>117.2758954548462</v>
       </c>
       <c r="D16" t="n">
-        <v>98.64454737443081</v>
+        <v>98.64454737443073</v>
       </c>
       <c r="E16" t="n">
-        <v>96.46303700278763</v>
+        <v>96.46303700278754</v>
       </c>
       <c r="F16" t="n">
-        <v>61.55749479465116</v>
+        <v>95.45012237914962</v>
       </c>
       <c r="G16" t="n">
-        <v>116.1525483327498</v>
+        <v>116.1525483327497</v>
       </c>
       <c r="H16" t="n">
-        <v>95.65242628615754</v>
+        <v>95.65242628615745</v>
       </c>
       <c r="I16" t="n">
-        <v>49.3185692524219</v>
+        <v>15.42594166792492</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.3526328332679</v>
+        <v>43.35263283326783</v>
       </c>
       <c r="S16" t="n">
-        <v>141.5001467826913</v>
+        <v>141.5001467826912</v>
       </c>
       <c r="T16" t="n">
-        <v>169.9953226071736</v>
+        <v>169.9953226071735</v>
       </c>
       <c r="U16" t="n">
-        <v>236.2462397827861</v>
+        <v>236.2462397827859</v>
       </c>
       <c r="V16" t="n">
-        <v>202.1667176800465</v>
+        <v>202.1667176800464</v>
       </c>
       <c r="W16" t="n">
-        <v>236.5520726928095</v>
+        <v>236.5520726928094</v>
       </c>
       <c r="X16" t="n">
-        <v>175.7387297452556</v>
+        <v>175.7387297452555</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.6137277083133</v>
+        <v>168.6137277083131</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>1.638638159355876</v>
       </c>
       <c r="D17" t="n">
-        <v>160.8411983760115</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
         <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
-        <v>313.4547343889917</v>
+        <v>313.4547343889918</v>
       </c>
       <c r="H17" t="n">
-        <v>199.1528609081267</v>
+        <v>199.1528609081268</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>16.46454031909099</v>
       </c>
       <c r="T17" t="n">
         <v>107.1863584498634</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>153.3278700478885</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>77.06086435222586</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.1159644314913</v>
+        <v>37.43124420338638</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.82813024562923</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S18" t="n">
         <v>130.3073561089639</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>112.057274879645</v>
       </c>
     </row>
     <row r="19">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G19" t="n">
-        <v>68.43875374842629</v>
+        <v>68.43875374842635</v>
       </c>
       <c r="H19" t="n">
-        <v>47.93863170183407</v>
+        <v>47.93863170183413</v>
       </c>
       <c r="I19" t="n">
-        <v>1.604774668098443</v>
+        <v>1.6047746680985</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.78635219836784</v>
+        <v>93.78635219836789</v>
       </c>
       <c r="T19" t="n">
-        <v>122.2815280228501</v>
+        <v>122.2815280228502</v>
       </c>
       <c r="U19" t="n">
         <v>188.5324451984626</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609322</v>
@@ -2090,13 +2090,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
-        <v>47.50520100544475</v>
+        <v>47.50520100544379</v>
       </c>
       <c r="H20" t="n">
-        <v>199.1528609081267</v>
+        <v>199.1528609081268</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.46454031909091</v>
+        <v>16.46454031909099</v>
       </c>
       <c r="T20" t="n">
         <v>107.1863584498634</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3278700478884</v>
+        <v>153.3278700478885</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>75.02377876021079</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.1159644314913</v>
+        <v>132.2125179666184</v>
       </c>
       <c r="H21" t="n">
-        <v>90.72197443278634</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.82813024562923</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.37583523493555</v>
       </c>
       <c r="S21" t="n">
-        <v>32.62263588085892</v>
+        <v>130.3073561089639</v>
       </c>
       <c r="T21" t="n">
         <v>191.1861279910934</v>
       </c>
       <c r="U21" t="n">
-        <v>162.3733771420573</v>
+        <v>225.7948325591512</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.43875374842629</v>
+        <v>68.43875374842635</v>
       </c>
       <c r="H22" t="n">
-        <v>47.93863170183407</v>
+        <v>47.93863170183413</v>
       </c>
       <c r="I22" t="n">
-        <v>1.604774668098436</v>
+        <v>1.6047746680985</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.78635219836784</v>
+        <v>93.78635219836789</v>
       </c>
       <c r="T22" t="n">
-        <v>122.2815280228501</v>
+        <v>122.2815280228502</v>
       </c>
       <c r="U22" t="n">
         <v>188.5324451984626</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2327,13 +2327,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G24" t="n">
         <v>134.9994691657081</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.32043991672484</v>
+        <v>335.0200470791573</v>
       </c>
       <c r="C26" t="n">
-        <v>317.5590971866841</v>
+        <v>317.5590971866842</v>
       </c>
       <c r="D26" t="n">
-        <v>306.9692470363595</v>
+        <v>306.9692470363597</v>
       </c>
       <c r="E26" t="n">
-        <v>334.2165754879384</v>
+        <v>334.2165754879385</v>
       </c>
       <c r="F26" t="n">
-        <v>359.162251157388</v>
+        <v>86.46264399495445</v>
       </c>
       <c r="G26" t="n">
-        <v>363.20793106913</v>
+        <v>363.2079310691302</v>
       </c>
       <c r="H26" t="n">
-        <v>246.893969802997</v>
+        <v>246.8939698029971</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.4739672038524</v>
+        <v>61.47396720385251</v>
       </c>
       <c r="T26" t="n">
-        <v>156.2041755552967</v>
+        <v>156.2041755552968</v>
       </c>
       <c r="U26" t="n">
-        <v>203.2813773745785</v>
+        <v>203.2813773745787</v>
       </c>
       <c r="V26" t="n">
-        <v>280.0384638858115</v>
+        <v>280.0384638858116</v>
       </c>
       <c r="W26" t="n">
-        <v>301.5271741330896</v>
+        <v>301.5271741330897</v>
       </c>
       <c r="X26" t="n">
-        <v>322.0173060941456</v>
+        <v>322.0173060941457</v>
       </c>
       <c r="Y26" t="n">
         <v>338.5241440717302</v>
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851123</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.1181855976139</v>
+        <v>132.118185597614</v>
       </c>
       <c r="C28" t="n">
-        <v>119.5330265143044</v>
+        <v>119.5330265143045</v>
       </c>
       <c r="D28" t="n">
-        <v>100.9016784338889</v>
+        <v>100.901678433889</v>
       </c>
       <c r="E28" t="n">
-        <v>98.72016806224575</v>
+        <v>98.72016806224585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.70725343860782</v>
+        <v>97.70725343860792</v>
       </c>
       <c r="G28" t="n">
-        <v>118.3120136747048</v>
+        <v>118.3120136747049</v>
       </c>
       <c r="H28" t="n">
-        <v>97.04122032999736</v>
+        <v>97.04122032999746</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63862582551467</v>
+        <v>48.63862582551477</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.21835808572392</v>
+        <v>41.21835808572401</v>
       </c>
       <c r="S28" t="n">
-        <v>142.0552307471185</v>
+        <v>142.0552307471186</v>
       </c>
       <c r="T28" t="n">
-        <v>171.8351546918458</v>
+        <v>171.8351546918459</v>
       </c>
       <c r="U28" t="n">
-        <v>238.4980436212894</v>
+        <v>238.4980436212895</v>
       </c>
       <c r="V28" t="n">
-        <v>204.4238487395046</v>
+        <v>204.4238487395047</v>
       </c>
       <c r="W28" t="n">
-        <v>238.8092037522676</v>
+        <v>238.8092037522677</v>
       </c>
       <c r="X28" t="n">
-        <v>177.9958608047137</v>
+        <v>177.9958608047138</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.8708587677714</v>
+        <v>170.8708587677715</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.0200470791572</v>
+        <v>335.0200470791573</v>
       </c>
       <c r="C29" t="n">
-        <v>317.5590971866841</v>
+        <v>317.5590971866842</v>
       </c>
       <c r="D29" t="n">
-        <v>306.9692470363595</v>
+        <v>306.9692470363597</v>
       </c>
       <c r="E29" t="n">
-        <v>334.2165754879384</v>
+        <v>334.2165754879385</v>
       </c>
       <c r="F29" t="n">
-        <v>304.1407867541045</v>
+        <v>359.1622511573881</v>
       </c>
       <c r="G29" t="n">
-        <v>363.20793106913</v>
+        <v>363.2079310691302</v>
       </c>
       <c r="H29" t="n">
-        <v>246.893969802997</v>
+        <v>246.8939698029971</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.4739672038525</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.2041755552968</v>
       </c>
       <c r="U29" t="n">
-        <v>203.2813773745786</v>
+        <v>203.2813773745787</v>
       </c>
       <c r="V29" t="n">
-        <v>280.0384638858115</v>
+        <v>7.338856723378275</v>
       </c>
       <c r="W29" t="n">
-        <v>301.5271741330896</v>
+        <v>301.5271741330897</v>
       </c>
       <c r="X29" t="n">
-        <v>322.0173060941456</v>
+        <v>322.0173060941457</v>
       </c>
       <c r="Y29" t="n">
         <v>338.5241440717302</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.1181855976139</v>
+        <v>132.118185597614</v>
       </c>
       <c r="C31" t="n">
-        <v>119.5330265143044</v>
+        <v>119.5330265143045</v>
       </c>
       <c r="D31" t="n">
         <v>100.901678433889</v>
       </c>
       <c r="E31" t="n">
-        <v>98.72016806224578</v>
+        <v>98.72016806224585</v>
       </c>
       <c r="F31" t="n">
-        <v>97.70725343860785</v>
+        <v>97.70725343860792</v>
       </c>
       <c r="G31" t="n">
-        <v>118.3120136747048</v>
+        <v>118.3120136747049</v>
       </c>
       <c r="H31" t="n">
-        <v>97.04122032999739</v>
+        <v>97.04122032999746</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63862582551469</v>
+        <v>48.63862582551477</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.21835808572391</v>
+        <v>41.21835808572401</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0552307471185</v>
+        <v>142.0552307471186</v>
       </c>
       <c r="T31" t="n">
-        <v>171.8351546918458</v>
+        <v>171.8351546918459</v>
       </c>
       <c r="U31" t="n">
-        <v>238.4980436212894</v>
+        <v>238.4980436212895</v>
       </c>
       <c r="V31" t="n">
-        <v>204.4238487395046</v>
+        <v>204.4238487395047</v>
       </c>
       <c r="W31" t="n">
-        <v>238.8092037522676</v>
+        <v>238.8092037522677</v>
       </c>
       <c r="X31" t="n">
-        <v>177.9958608047137</v>
+        <v>177.9958608047138</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.8708587677714</v>
+        <v>170.8708587677715</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>134.9994691657081</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G45" t="n">
         <v>134.9994691657081</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1441.919342323539</v>
+        <v>1094.319424725373</v>
       </c>
       <c r="C11" t="n">
-        <v>1441.919342323539</v>
+        <v>1094.319424725373</v>
       </c>
       <c r="D11" t="n">
-        <v>1134.129326185255</v>
+        <v>786.5294085870889</v>
       </c>
       <c r="E11" t="n">
-        <v>798.8167560554772</v>
+        <v>786.5294085870889</v>
       </c>
       <c r="F11" t="n">
-        <v>438.3065337343359</v>
+        <v>426.0191862659477</v>
       </c>
       <c r="G11" t="n">
-        <v>73.48983780169458</v>
+        <v>61.20249033330617</v>
       </c>
       <c r="H11" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330617</v>
       </c>
       <c r="I11" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J11" t="n">
-        <v>231.7869424005976</v>
+        <v>231.7869424005971</v>
       </c>
       <c r="K11" t="n">
-        <v>538.187334838002</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L11" t="n">
-        <v>955.2058772905834</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M11" t="n">
         <v>1450.888794084061</v>
       </c>
       <c r="N11" t="n">
-        <v>1959.206187070626</v>
+        <v>1959.206187070625</v>
       </c>
       <c r="O11" t="n">
-        <v>2425.86062583615</v>
+        <v>2425.860625836149</v>
       </c>
       <c r="P11" t="n">
-        <v>2789.638392031558</v>
+        <v>2789.638392031557</v>
       </c>
       <c r="Q11" t="n">
-        <v>3014.647597950839</v>
+        <v>3014.647597950838</v>
       </c>
       <c r="R11" t="n">
-        <v>3060.124516665312</v>
+        <v>3060.124516665311</v>
       </c>
       <c r="S11" t="n">
-        <v>3060.124516665312</v>
+        <v>2995.297915752772</v>
       </c>
       <c r="T11" t="n">
-        <v>2903.659715620679</v>
+        <v>2838.833114708139</v>
       </c>
       <c r="U11" t="n">
-        <v>2700.587327103292</v>
+        <v>2635.760726190752</v>
       </c>
       <c r="V11" t="n">
-        <v>2420.000122228188</v>
+        <v>2355.173521315648</v>
       </c>
       <c r="W11" t="n">
-        <v>2117.70714942654</v>
+        <v>2052.880548514</v>
       </c>
       <c r="X11" t="n">
-        <v>2117.70714942654</v>
+        <v>1729.890472721387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1778.043499919195</v>
+        <v>1390.226823214041</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>856.6989266043977</v>
+        <v>798.7729055147847</v>
       </c>
       <c r="C12" t="n">
-        <v>732.7215797917369</v>
+        <v>674.795558702124</v>
       </c>
       <c r="D12" t="n">
-        <v>583.7871701304856</v>
+        <v>544.6179510093475</v>
       </c>
       <c r="E12" t="n">
-        <v>424.5497151250301</v>
+        <v>385.3804960038921</v>
       </c>
       <c r="F12" t="n">
-        <v>278.0151571519151</v>
+        <v>238.845938030777</v>
       </c>
       <c r="G12" t="n">
-        <v>141.5343849988936</v>
+        <v>152.8408483462217</v>
       </c>
       <c r="H12" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="I12" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J12" t="n">
         <v>143.9835744071039</v>
@@ -5142,28 +5142,28 @@
         <v>2381.780644091913</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S12" t="n">
-        <v>2250.157052062656</v>
+        <v>2242.706713441509</v>
       </c>
       <c r="T12" t="n">
-        <v>2107.515433530018</v>
+        <v>2049.589412440404</v>
       </c>
       <c r="U12" t="n">
-        <v>1879.439845086431</v>
+        <v>1821.513823996817</v>
       </c>
       <c r="V12" t="n">
-        <v>1644.287736854688</v>
+        <v>1586.361715765075</v>
       </c>
       <c r="W12" t="n">
-        <v>1390.050380126486</v>
+        <v>1332.124359036873</v>
       </c>
       <c r="X12" t="n">
-        <v>1232.67456238942</v>
+        <v>1124.27285883134</v>
       </c>
       <c r="Y12" t="n">
-        <v>1024.914263624466</v>
+        <v>916.5125600663864</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.6818019474939</v>
+        <v>702.681801947495</v>
       </c>
       <c r="C13" t="n">
-        <v>584.2213014880532</v>
+        <v>584.2213014880545</v>
       </c>
       <c r="D13" t="n">
-        <v>518.8153219022621</v>
+        <v>484.580344544185</v>
       </c>
       <c r="E13" t="n">
-        <v>421.3779107883353</v>
+        <v>387.1429334302582</v>
       </c>
       <c r="F13" t="n">
-        <v>324.9636457588912</v>
+        <v>290.7286684008141</v>
       </c>
       <c r="G13" t="n">
-        <v>207.6378393621743</v>
+        <v>207.6378393621742</v>
       </c>
       <c r="H13" t="n">
-        <v>111.0192269519142</v>
+        <v>111.0192269519141</v>
       </c>
       <c r="I13" t="n">
-        <v>61.20249033330623</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J13" t="n">
-        <v>148.9604226023924</v>
+        <v>148.9604226023925</v>
       </c>
       <c r="K13" t="n">
-        <v>391.1853111114082</v>
+        <v>391.1853111114083</v>
       </c>
       <c r="L13" t="n">
-        <v>742.8412996508398</v>
+        <v>742.8412996508399</v>
       </c>
       <c r="M13" t="n">
         <v>1121.313111935582</v>
       </c>
       <c r="N13" t="n">
-        <v>1497.396641824226</v>
+        <v>1497.396641824227</v>
       </c>
       <c r="O13" t="n">
-        <v>1832.530897950342</v>
+        <v>1832.530897950343</v>
       </c>
       <c r="P13" t="n">
         <v>2102.915512420397</v>
       </c>
       <c r="Q13" t="n">
-        <v>2221.900634644967</v>
+        <v>2221.900634644968</v>
       </c>
       <c r="R13" t="n">
-        <v>2178.110096429545</v>
+        <v>2178.110096429546</v>
       </c>
       <c r="S13" t="n">
         <v>2035.180655234908</v>
       </c>
       <c r="T13" t="n">
-        <v>1863.468208156954</v>
+        <v>1863.468208156955</v>
       </c>
       <c r="U13" t="n">
-        <v>1624.835642719797</v>
+        <v>1624.835642719798</v>
       </c>
       <c r="V13" t="n">
         <v>1420.626836982377</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.685349413882</v>
+        <v>1181.685349413883</v>
       </c>
       <c r="X13" t="n">
-        <v>1004.171480984331</v>
+        <v>1004.171480984332</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.8545843092674</v>
+        <v>833.8545843092684</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.175556995692</v>
+        <v>1390.22682321404</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.175556995692</v>
+        <v>1071.739988742095</v>
       </c>
       <c r="D14" t="n">
-        <v>1006.385540857408</v>
+        <v>763.9499726038116</v>
       </c>
       <c r="E14" t="n">
-        <v>671.0729707276296</v>
+        <v>763.9499726038116</v>
       </c>
       <c r="F14" t="n">
-        <v>310.5627484064882</v>
+        <v>426.0191862659477</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5627484064882</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="H14" t="n">
-        <v>61.20249033330622</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="I14" t="n">
-        <v>61.20249033330622</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="J14" t="n">
-        <v>231.7869424005972</v>
+        <v>231.7869424005971</v>
       </c>
       <c r="K14" t="n">
-        <v>538.1873348380016</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L14" t="n">
-        <v>955.2058772905825</v>
+        <v>955.2058772905821</v>
       </c>
       <c r="M14" t="n">
-        <v>1450.888794084061</v>
+        <v>1450.88879408406</v>
       </c>
       <c r="N14" t="n">
         <v>1959.206187070625</v>
@@ -5297,31 +5297,31 @@
         <v>2789.638392031557</v>
       </c>
       <c r="Q14" t="n">
-        <v>3014.647597950838</v>
+        <v>3014.647597950837</v>
       </c>
       <c r="R14" t="n">
-        <v>3060.124516665311</v>
+        <v>3060.12451666531</v>
       </c>
       <c r="S14" t="n">
-        <v>3060.124516665311</v>
+        <v>2995.297915752771</v>
       </c>
       <c r="T14" t="n">
-        <v>3060.124516665311</v>
+        <v>2838.833114708138</v>
       </c>
       <c r="U14" t="n">
-        <v>2895.83361756806</v>
+        <v>2635.760726190751</v>
       </c>
       <c r="V14" t="n">
-        <v>2615.246412692955</v>
+        <v>2355.173521315647</v>
       </c>
       <c r="W14" t="n">
-        <v>2312.953439891307</v>
+        <v>2052.880548513999</v>
       </c>
       <c r="X14" t="n">
-        <v>1989.963364098694</v>
+        <v>1729.890472721386</v>
       </c>
       <c r="Y14" t="n">
-        <v>1650.299714591348</v>
+        <v>1390.22682321404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>767.0540250147934</v>
+        <v>849.2485879832511</v>
       </c>
       <c r="C15" t="n">
-        <v>592.6009957336664</v>
+        <v>674.7955587021241</v>
       </c>
       <c r="D15" t="n">
-        <v>443.6665860724152</v>
+        <v>525.8611490408729</v>
       </c>
       <c r="E15" t="n">
-        <v>284.4291310669597</v>
+        <v>366.6236940354174</v>
       </c>
       <c r="F15" t="n">
-        <v>188.3702555623109</v>
+        <v>238.845938030777</v>
       </c>
       <c r="G15" t="n">
-        <v>102.3651658777555</v>
+        <v>152.8408483462217</v>
       </c>
       <c r="H15" t="n">
-        <v>61.20249033330622</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="I15" t="n">
-        <v>61.20249033330622</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="J15" t="n">
         <v>143.9835744071039</v>
       </c>
       <c r="K15" t="n">
-        <v>363.6244569912277</v>
+        <v>363.6244569912276</v>
       </c>
       <c r="L15" t="n">
-        <v>705.281270149181</v>
+        <v>705.2812701491807</v>
       </c>
       <c r="M15" t="n">
         <v>1123.335524365988</v>
       </c>
       <c r="N15" t="n">
-        <v>1566.863075648404</v>
+        <v>1566.863075648403</v>
       </c>
       <c r="O15" t="n">
         <v>1950.38433973262</v>
       </c>
       <c r="P15" t="n">
-        <v>2238.860899748833</v>
+        <v>2238.860899748832</v>
       </c>
       <c r="Q15" t="n">
         <v>2381.780644091913</v>
       </c>
       <c r="R15" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S15" t="n">
-        <v>2250.157052062656</v>
+        <v>2293.182395909975</v>
       </c>
       <c r="T15" t="n">
-        <v>2057.039751061552</v>
+        <v>2100.065094908871</v>
       </c>
       <c r="U15" t="n">
-        <v>1828.964162617965</v>
+        <v>1922.46518893375</v>
       </c>
       <c r="V15" t="n">
-        <v>1593.812054386222</v>
+        <v>1687.313080702007</v>
       </c>
       <c r="W15" t="n">
-        <v>1339.574697658021</v>
+        <v>1433.075723973806</v>
       </c>
       <c r="X15" t="n">
-        <v>1131.723197452488</v>
+        <v>1225.224223768273</v>
       </c>
       <c r="Y15" t="n">
-        <v>935.2693620348614</v>
+        <v>1017.463925003319</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.6818019474931</v>
+        <v>702.6818019474939</v>
       </c>
       <c r="C16" t="n">
-        <v>584.2213014880524</v>
+        <v>584.2213014880533</v>
       </c>
       <c r="D16" t="n">
-        <v>484.5803445441829</v>
+        <v>484.5803445441838</v>
       </c>
       <c r="E16" t="n">
-        <v>387.1429334302561</v>
+        <v>387.142933430257</v>
       </c>
       <c r="F16" t="n">
-        <v>324.9636457588912</v>
+        <v>290.7286684008131</v>
       </c>
       <c r="G16" t="n">
-        <v>207.6378393621743</v>
+        <v>173.4028620040965</v>
       </c>
       <c r="H16" t="n">
-        <v>111.0192269519142</v>
+        <v>76.78424959383642</v>
       </c>
       <c r="I16" t="n">
-        <v>61.20249033330622</v>
+        <v>61.20249033330621</v>
       </c>
       <c r="J16" t="n">
-        <v>148.9604226023925</v>
+        <v>148.9604226023923</v>
       </c>
       <c r="K16" t="n">
-        <v>391.1853111114082</v>
+        <v>391.1853111114085</v>
       </c>
       <c r="L16" t="n">
-        <v>742.8412996508398</v>
+        <v>742.8412996508401</v>
       </c>
       <c r="M16" t="n">
         <v>1121.313111935582</v>
       </c>
       <c r="N16" t="n">
-        <v>1497.396641824226</v>
+        <v>1497.396641824227</v>
       </c>
       <c r="O16" t="n">
-        <v>1832.530897950342</v>
+        <v>1832.530897950343</v>
       </c>
       <c r="P16" t="n">
         <v>2102.915512420397</v>
       </c>
       <c r="Q16" t="n">
-        <v>2221.900634644967</v>
+        <v>2221.900634644968</v>
       </c>
       <c r="R16" t="n">
-        <v>2178.110096429545</v>
+        <v>2178.110096429546</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.180655234907</v>
+        <v>2035.180655234908</v>
       </c>
       <c r="T16" t="n">
-        <v>1863.468208156954</v>
+        <v>1863.468208156955</v>
       </c>
       <c r="U16" t="n">
         <v>1624.835642719797</v>
       </c>
       <c r="V16" t="n">
-        <v>1420.626836982376</v>
+        <v>1420.626836982377</v>
       </c>
       <c r="W16" t="n">
         <v>1181.685349413882</v>
       </c>
       <c r="X16" t="n">
-        <v>1004.17148098433</v>
+        <v>1004.171480984331</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.8545843092666</v>
+        <v>833.8545843092672</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1611.176167680575</v>
+        <v>1439.668682461403</v>
       </c>
       <c r="C17" t="n">
-        <v>1340.885085314006</v>
+        <v>1438.013492401447</v>
       </c>
       <c r="D17" t="n">
         <v>1178.41922836854</v>
       </c>
       <c r="E17" t="n">
-        <v>891.3024103441393</v>
+        <v>891.3024103441394</v>
       </c>
       <c r="F17" t="n">
         <v>578.9879401283752</v>
       </c>
       <c r="G17" t="n">
-        <v>262.366996301111</v>
+        <v>262.3669963011111</v>
       </c>
       <c r="H17" t="n">
-        <v>61.20249033330621</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="I17" t="n">
-        <v>61.20249033330621</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J17" t="n">
-        <v>231.7869424005976</v>
+        <v>231.7869424005971</v>
       </c>
       <c r="K17" t="n">
-        <v>538.187334838002</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L17" t="n">
-        <v>955.205877290583</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M17" t="n">
         <v>1450.888794084061</v>
@@ -5528,7 +5528,7 @@
         <v>1959.206187070625</v>
       </c>
       <c r="O17" t="n">
-        <v>2425.86062583615</v>
+        <v>2425.860625836149</v>
       </c>
       <c r="P17" t="n">
         <v>2789.638392031557</v>
@@ -5540,25 +5540,25 @@
         <v>3060.124516665311</v>
       </c>
       <c r="S17" t="n">
-        <v>3060.124516665311</v>
+        <v>3043.493667858149</v>
       </c>
       <c r="T17" t="n">
-        <v>2951.855467726055</v>
+        <v>2935.224618918893</v>
       </c>
       <c r="U17" t="n">
-        <v>2951.855467726055</v>
+        <v>2780.347982506884</v>
       </c>
       <c r="V17" t="n">
-        <v>2719.464014956328</v>
+        <v>2547.956529737157</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.366794260058</v>
+        <v>2293.859309040886</v>
       </c>
       <c r="X17" t="n">
-        <v>2190.572470572822</v>
+        <v>2019.06498535365</v>
       </c>
       <c r="Y17" t="n">
-        <v>1899.104573170853</v>
+        <v>1727.597087951681</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>755.7475616674656</v>
+        <v>842.8683552661762</v>
       </c>
       <c r="C18" t="n">
-        <v>581.2945323863386</v>
+        <v>668.4153259850492</v>
       </c>
       <c r="D18" t="n">
-        <v>503.4552754648983</v>
+        <v>519.4809163237979</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2178204594428</v>
+        <v>360.2434613183424</v>
       </c>
       <c r="F18" t="n">
-        <v>197.6832624863277</v>
+        <v>213.7089033452274</v>
       </c>
       <c r="G18" t="n">
-        <v>61.20249033330621</v>
+        <v>175.8995657660492</v>
       </c>
       <c r="H18" t="n">
-        <v>61.20249033330621</v>
+        <v>84.26120775313373</v>
       </c>
       <c r="I18" t="n">
-        <v>61.20249033330621</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J18" t="n">
         <v>143.9835744071039</v>
@@ -5616,28 +5616,28 @@
         <v>2381.780644091913</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S18" t="n">
-        <v>2250.157052062656</v>
+        <v>2242.706713441509</v>
       </c>
       <c r="T18" t="n">
-        <v>2057.039751061552</v>
+        <v>2049.589412440404</v>
       </c>
       <c r="U18" t="n">
-        <v>1828.964162617965</v>
+        <v>1821.513823996817</v>
       </c>
       <c r="V18" t="n">
-        <v>1593.812054386222</v>
+        <v>1586.361715765075</v>
       </c>
       <c r="W18" t="n">
-        <v>1339.57469765802</v>
+        <v>1332.124359036873</v>
       </c>
       <c r="X18" t="n">
-        <v>1131.723197452488</v>
+        <v>1124.27285883134</v>
       </c>
       <c r="Y18" t="n">
-        <v>923.9628986875337</v>
+        <v>1011.083692286244</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5465145679318</v>
+        <v>399.5465145679323</v>
       </c>
       <c r="C19" t="n">
-        <v>329.2817662138684</v>
+        <v>329.2817662138688</v>
       </c>
       <c r="D19" t="n">
-        <v>277.8365613753761</v>
+        <v>277.8365613753764</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5949023668265</v>
+        <v>228.5949023668267</v>
       </c>
       <c r="F19" t="n">
-        <v>180.3763894427595</v>
+        <v>180.3763894427597</v>
       </c>
       <c r="G19" t="n">
-        <v>111.2463351514199</v>
+        <v>111.24633515142</v>
       </c>
       <c r="H19" t="n">
-        <v>62.82347484653696</v>
+        <v>62.82347484653703</v>
       </c>
       <c r="I19" t="n">
-        <v>61.20249033330621</v>
+        <v>61.20249033330622</v>
       </c>
       <c r="J19" t="n">
-        <v>162.8972003313766</v>
+        <v>162.8972003313765</v>
       </c>
       <c r="K19" t="n">
-        <v>346.6824167976666</v>
+        <v>249.9745437718426</v>
       </c>
       <c r="L19" t="n">
-        <v>584.7251074494394</v>
+        <v>488.0172344236154</v>
       </c>
       <c r="M19" t="n">
-        <v>833.7090120723107</v>
+        <v>737.0011390464865</v>
       </c>
       <c r="N19" t="n">
-        <v>990.221785897594</v>
+        <v>990.2217858975937</v>
       </c>
       <c r="O19" t="n">
-        <v>1199.59421857671</v>
+        <v>1211.181448959966</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.558992004344</v>
+        <v>1395.1462223876</v>
       </c>
       <c r="Q19" t="n">
-        <v>1485.091242073421</v>
+        <v>1485.091242073422</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.408792206966</v>
+        <v>1489.408792206967</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.675103117705</v>
+        <v>1394.675103117706</v>
       </c>
       <c r="T19" t="n">
-        <v>1271.158408145129</v>
+        <v>1271.158408145131</v>
       </c>
       <c r="U19" t="n">
-        <v>1080.721594813349</v>
+        <v>1080.72159481335</v>
       </c>
       <c r="V19" t="n">
-        <v>924.7085411813057</v>
+        <v>924.7085411813066</v>
       </c>
       <c r="W19" t="n">
-        <v>733.9628057181885</v>
+        <v>733.9628057181893</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6446893940147</v>
+        <v>604.6446893940154</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.523544824328</v>
+        <v>482.5235448243286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1439.668682461404</v>
+        <v>1439.668682461403</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.377600094836</v>
+        <v>1169.377600094835</v>
       </c>
       <c r="D20" t="n">
-        <v>909.7833360619286</v>
+        <v>909.7833360619275</v>
       </c>
       <c r="E20" t="n">
-        <v>622.6665180375276</v>
+        <v>622.6665180375267</v>
       </c>
       <c r="F20" t="n">
-        <v>310.3520478217633</v>
+        <v>310.3520478217624</v>
       </c>
       <c r="G20" t="n">
-        <v>262.366996301111</v>
+        <v>262.3669963011111</v>
       </c>
       <c r="H20" t="n">
         <v>61.20249033330622</v>
@@ -5753,10 +5753,10 @@
         <v>231.7869424005971</v>
       </c>
       <c r="K20" t="n">
-        <v>538.1873348380016</v>
+        <v>538.1873348380013</v>
       </c>
       <c r="L20" t="n">
-        <v>955.2058772905827</v>
+        <v>955.2058772905825</v>
       </c>
       <c r="M20" t="n">
         <v>1450.888794084061</v>
@@ -5786,16 +5786,16 @@
         <v>2780.347982506884</v>
       </c>
       <c r="V20" t="n">
-        <v>2547.956529737157</v>
+        <v>2547.956529737156</v>
       </c>
       <c r="W20" t="n">
-        <v>2293.859309040887</v>
+        <v>2293.859309040886</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.064985353651</v>
+        <v>2019.06498535365</v>
       </c>
       <c r="Y20" t="n">
-        <v>1727.597087951682</v>
+        <v>1727.597087951681</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>918.4810724201922</v>
+        <v>748.2972230463183</v>
       </c>
       <c r="C21" t="n">
-        <v>744.0280431390652</v>
+        <v>672.5156283390347</v>
       </c>
       <c r="D21" t="n">
-        <v>595.0936334778139</v>
+        <v>523.5812186777835</v>
       </c>
       <c r="E21" t="n">
-        <v>435.8561784723584</v>
+        <v>364.343763672328</v>
       </c>
       <c r="F21" t="n">
-        <v>289.3216204992433</v>
+        <v>217.8092056992129</v>
       </c>
       <c r="G21" t="n">
-        <v>152.8408483462217</v>
+        <v>84.26120775313373</v>
       </c>
       <c r="H21" t="n">
-        <v>61.20249033330622</v>
+        <v>84.26120775313373</v>
       </c>
       <c r="I21" t="n">
         <v>61.20249033330622</v>
@@ -5832,49 +5832,49 @@
         <v>143.9835744071039</v>
       </c>
       <c r="K21" t="n">
-        <v>363.6244569912277</v>
+        <v>363.6244569912276</v>
       </c>
       <c r="L21" t="n">
-        <v>705.281270149181</v>
+        <v>705.2812701491807</v>
       </c>
       <c r="M21" t="n">
         <v>1123.335524365988</v>
       </c>
       <c r="N21" t="n">
-        <v>1566.863075648404</v>
+        <v>1566.863075648403</v>
       </c>
       <c r="O21" t="n">
         <v>1950.38433973262</v>
       </c>
       <c r="P21" t="n">
-        <v>2238.860899748833</v>
+        <v>2238.860899748832</v>
       </c>
       <c r="Q21" t="n">
         <v>2381.780644091913</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.780644091913</v>
+        <v>2374.330305470765</v>
       </c>
       <c r="S21" t="n">
-        <v>2348.8284866365</v>
+        <v>2242.706713441509</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.711185635395</v>
+        <v>2049.589412440404</v>
       </c>
       <c r="U21" t="n">
-        <v>1991.697673370691</v>
+        <v>1821.513823996817</v>
       </c>
       <c r="V21" t="n">
-        <v>1756.545565138948</v>
+        <v>1586.361715765075</v>
       </c>
       <c r="W21" t="n">
-        <v>1502.308208410747</v>
+        <v>1332.124359036873</v>
       </c>
       <c r="X21" t="n">
-        <v>1294.456708205214</v>
+        <v>1124.27285883134</v>
       </c>
       <c r="Y21" t="n">
-        <v>1086.69640944026</v>
+        <v>916.5125600663864</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5465145679318</v>
+        <v>399.5465145679323</v>
       </c>
       <c r="C22" t="n">
-        <v>329.2817662138684</v>
+        <v>329.2817662138688</v>
       </c>
       <c r="D22" t="n">
-        <v>277.8365613753761</v>
+        <v>277.8365613753764</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5949023668265</v>
+        <v>228.5949023668267</v>
       </c>
       <c r="F22" t="n">
-        <v>180.3763894427595</v>
+        <v>180.3763894427597</v>
       </c>
       <c r="G22" t="n">
-        <v>111.2463351514199</v>
+        <v>111.24633515142</v>
       </c>
       <c r="H22" t="n">
-        <v>62.82347484653697</v>
+        <v>62.82347484653703</v>
       </c>
       <c r="I22" t="n">
         <v>61.20249033330622</v>
       </c>
       <c r="J22" t="n">
-        <v>162.8972003313766</v>
+        <v>162.8972003313765</v>
       </c>
       <c r="K22" t="n">
-        <v>346.6824167976666</v>
+        <v>249.9745437718426</v>
       </c>
       <c r="L22" t="n">
-        <v>584.7251074494395</v>
+        <v>488.0172344236154</v>
       </c>
       <c r="M22" t="n">
-        <v>833.7090120723109</v>
+        <v>737.0011390464865</v>
       </c>
       <c r="N22" t="n">
-        <v>1086.929658923418</v>
+        <v>990.2217858975937</v>
       </c>
       <c r="O22" t="n">
-        <v>1211.181448959967</v>
+        <v>1211.181448959966</v>
       </c>
       <c r="P22" t="n">
-        <v>1395.146222387601</v>
+        <v>1395.1462223876</v>
       </c>
       <c r="Q22" t="n">
-        <v>1485.091242073421</v>
+        <v>1485.091242073422</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.408792206966</v>
+        <v>1489.408792206967</v>
       </c>
       <c r="S22" t="n">
-        <v>1394.675103117705</v>
+        <v>1394.675103117706</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.158408145129</v>
+        <v>1271.158408145131</v>
       </c>
       <c r="U22" t="n">
-        <v>1080.721594813349</v>
+        <v>1080.72159481335</v>
       </c>
       <c r="V22" t="n">
-        <v>924.7085411813057</v>
+        <v>924.7085411813066</v>
       </c>
       <c r="W22" t="n">
-        <v>733.9628057181885</v>
+        <v>733.9628057181893</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6446893940147</v>
+        <v>604.6446893940154</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.523544824328</v>
+        <v>482.5235448243286</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D23" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>273.3535972631172</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>525.7713142112984</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0879214996976</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N25" t="n">
-        <v>1038.104631555369</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773559</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022.796137605857</v>
+        <v>1747.341988956934</v>
       </c>
       <c r="C26" t="n">
-        <v>1702.029372770822</v>
+        <v>1426.5752241219</v>
       </c>
       <c r="D26" t="n">
-        <v>1391.959426269449</v>
+        <v>1116.505277620526</v>
       </c>
       <c r="E26" t="n">
-        <v>1054.366925776582</v>
+        <v>778.9127771276588</v>
       </c>
       <c r="F26" t="n">
-        <v>691.5767730923512</v>
+        <v>691.5767730923513</v>
       </c>
       <c r="G26" t="n">
-        <v>324.7000750427248</v>
+        <v>324.7000750427249</v>
       </c>
       <c r="H26" t="n">
         <v>75.31222675686924</v>
       </c>
       <c r="I26" t="n">
-        <v>81.38772292015287</v>
+        <v>81.38772292015301</v>
       </c>
       <c r="J26" t="n">
         <v>317.5035105176585</v>
@@ -6236,13 +6236,13 @@
         <v>1777.598972043279</v>
       </c>
       <c r="N26" t="n">
-        <v>2371.614445740541</v>
+        <v>2371.614445740542</v>
       </c>
       <c r="O26" t="n">
-        <v>2921.823573258358</v>
+        <v>2921.823573258359</v>
       </c>
       <c r="P26" t="n">
-        <v>3363.834596254016</v>
+        <v>3363.834596254017</v>
       </c>
       <c r="Q26" t="n">
         <v>3659.357614648179</v>
@@ -6257,19 +6257,19 @@
         <v>3545.734425965533</v>
       </c>
       <c r="U26" t="n">
-        <v>3340.399701344747</v>
+        <v>3340.399701344746</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.532566106554</v>
+        <v>3057.532566106553</v>
       </c>
       <c r="W26" t="n">
-        <v>2752.959662941817</v>
+        <v>2752.959662941816</v>
       </c>
       <c r="X26" t="n">
-        <v>2427.689656786114</v>
+        <v>2427.689656786113</v>
       </c>
       <c r="Y26" t="n">
-        <v>2085.74607691568</v>
+        <v>2085.746076915679</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6294,7 @@
         <v>321.1845128848457</v>
       </c>
       <c r="G27" t="n">
-        <v>184.8214127174638</v>
+        <v>184.8214127174637</v>
       </c>
       <c r="H27" t="n">
         <v>94.31951835533127</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.0435260288529</v>
+        <v>763.0435260288536</v>
       </c>
       <c r="C28" t="n">
-        <v>642.3030952063232</v>
+        <v>642.3030952063239</v>
       </c>
       <c r="D28" t="n">
-        <v>540.3822078993646</v>
+        <v>540.3822078993652</v>
       </c>
       <c r="E28" t="n">
-        <v>440.6648664223487</v>
+        <v>440.6648664223492</v>
       </c>
       <c r="F28" t="n">
-        <v>341.9706710298155</v>
+        <v>341.9706710298159</v>
       </c>
       <c r="G28" t="n">
-        <v>222.4635865099117</v>
+        <v>222.4635865099119</v>
       </c>
       <c r="H28" t="n">
-        <v>124.4421518331467</v>
+        <v>124.4421518331468</v>
       </c>
       <c r="I28" t="n">
         <v>75.31222675686924</v>
       </c>
       <c r="J28" t="n">
-        <v>167.671515842285</v>
+        <v>167.6715158422849</v>
       </c>
       <c r="K28" t="n">
-        <v>418.8953554296415</v>
+        <v>418.8953554296413</v>
       </c>
       <c r="L28" t="n">
-        <v>782.6918105166178</v>
+        <v>782.6918105166176</v>
       </c>
       <c r="M28" t="n">
-        <v>1156.297435149196</v>
+        <v>1174.085512754647</v>
       </c>
       <c r="N28" t="n">
-        <v>1544.942468493541</v>
+        <v>1562.730546098991</v>
       </c>
       <c r="O28" t="n">
-        <v>1891.508724052435</v>
+        <v>1891.508724052436</v>
       </c>
       <c r="P28" t="n">
-        <v>2171.352881124574</v>
+        <v>2171.352881124576</v>
       </c>
       <c r="Q28" t="n">
-        <v>2296.199833915569</v>
+        <v>2296.199833915571</v>
       </c>
       <c r="R28" t="n">
-        <v>2254.565128778474</v>
+        <v>2254.565128778476</v>
       </c>
       <c r="S28" t="n">
-        <v>2111.074996710678</v>
+        <v>2111.074996710679</v>
       </c>
       <c r="T28" t="n">
-        <v>1937.504133385581</v>
+        <v>1937.504133385582</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.597018616602</v>
+        <v>1696.597018616603</v>
       </c>
       <c r="V28" t="n">
-        <v>1490.108282516092</v>
+        <v>1490.108282516093</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.886864584509</v>
+        <v>1248.88686458451</v>
       </c>
       <c r="X28" t="n">
-        <v>1069.093065791868</v>
+        <v>1069.093065791869</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.4962387537154</v>
+        <v>896.4962387537163</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1967.218900834863</v>
+        <v>2022.796137605857</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.452135999828</v>
+        <v>1702.029372770822</v>
       </c>
       <c r="D29" t="n">
-        <v>1336.382189498455</v>
+        <v>1391.959426269449</v>
       </c>
       <c r="E29" t="n">
-        <v>998.789689005588</v>
+        <v>1054.366925776582</v>
       </c>
       <c r="F29" t="n">
-        <v>691.5767730923511</v>
+        <v>691.5767730923515</v>
       </c>
       <c r="G29" t="n">
-        <v>324.7000750427248</v>
+        <v>324.700075042725</v>
       </c>
       <c r="H29" t="n">
         <v>75.31222675686924</v>
       </c>
       <c r="I29" t="n">
-        <v>81.38772292015275</v>
+        <v>81.38772292015301</v>
       </c>
       <c r="J29" t="n">
         <v>317.5035105176585</v>
       </c>
       <c r="K29" t="n">
-        <v>698.5595408459852</v>
+        <v>698.5595408459853</v>
       </c>
       <c r="L29" t="n">
         <v>1196.830410732874</v>
@@ -6476,10 +6476,10 @@
         <v>2371.614445740542</v>
       </c>
       <c r="O29" t="n">
-        <v>2921.823573258358</v>
+        <v>2921.823573258359</v>
       </c>
       <c r="P29" t="n">
-        <v>3363.834596254016</v>
+        <v>3363.834596254017</v>
       </c>
       <c r="Q29" t="n">
         <v>3659.357614648179</v>
@@ -6488,25 +6488,25 @@
         <v>3765.611337843462</v>
       </c>
       <c r="S29" t="n">
-        <v>3765.611337843462</v>
+        <v>3703.516421475934</v>
       </c>
       <c r="T29" t="n">
-        <v>3765.611337843462</v>
+        <v>3545.734425965534</v>
       </c>
       <c r="U29" t="n">
-        <v>3560.276613222675</v>
+        <v>3340.399701344747</v>
       </c>
       <c r="V29" t="n">
-        <v>3277.409477984482</v>
+        <v>3332.986714755476</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.836574819745</v>
+        <v>3028.413811590739</v>
       </c>
       <c r="X29" t="n">
-        <v>2647.566568664042</v>
+        <v>2703.143805435036</v>
       </c>
       <c r="Y29" t="n">
-        <v>2305.622988793608</v>
+        <v>2361.200225564602</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6531,28 @@
         <v>321.1845128848456</v>
       </c>
       <c r="G30" t="n">
-        <v>184.8214127174642</v>
+        <v>184.8214127174641</v>
       </c>
       <c r="H30" t="n">
-        <v>94.31951835533164</v>
+        <v>94.31951835533165</v>
       </c>
       <c r="I30" t="n">
         <v>75.31222675686924</v>
       </c>
       <c r="J30" t="n">
-        <v>168.9894962474864</v>
+        <v>168.9894962474866</v>
       </c>
       <c r="K30" t="n">
-        <v>407.2536952278338</v>
+        <v>407.2536952278337</v>
       </c>
       <c r="L30" t="n">
-        <v>773.9518555404989</v>
+        <v>773.9518555404991</v>
       </c>
       <c r="M30" t="n">
         <v>1221.228180762815</v>
       </c>
       <c r="N30" t="n">
-        <v>1694.751224317269</v>
+        <v>1694.75122431727</v>
       </c>
       <c r="O30" t="n">
         <v>2105.712503735324</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.0435260288531</v>
+        <v>763.0435260288536</v>
       </c>
       <c r="C31" t="n">
-        <v>642.3030952063233</v>
+        <v>642.3030952063239</v>
       </c>
       <c r="D31" t="n">
-        <v>540.3822078993647</v>
+        <v>540.3822078993652</v>
       </c>
       <c r="E31" t="n">
-        <v>440.6648664223488</v>
+        <v>440.6648664223492</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9706710298156</v>
+        <v>341.9706710298159</v>
       </c>
       <c r="G31" t="n">
-        <v>222.4635865099117</v>
+        <v>222.4635865099119</v>
       </c>
       <c r="H31" t="n">
-        <v>124.4421518331467</v>
+        <v>124.4421518331468</v>
       </c>
       <c r="I31" t="n">
         <v>75.31222675686924</v>
       </c>
       <c r="J31" t="n">
-        <v>149.8834382368341</v>
+        <v>167.6715158422849</v>
       </c>
       <c r="K31" t="n">
-        <v>401.1072778241907</v>
+        <v>418.8953554296413</v>
       </c>
       <c r="L31" t="n">
-        <v>764.903732911167</v>
+        <v>782.6918105166176</v>
       </c>
       <c r="M31" t="n">
-        <v>1156.297435149196</v>
+        <v>1174.085512754647</v>
       </c>
       <c r="N31" t="n">
-        <v>1544.942468493541</v>
+        <v>1562.730546098991</v>
       </c>
       <c r="O31" t="n">
-        <v>1891.508724052435</v>
+        <v>1891.508724052436</v>
       </c>
       <c r="P31" t="n">
-        <v>2171.352881124574</v>
+        <v>2171.352881124576</v>
       </c>
       <c r="Q31" t="n">
-        <v>2296.199833915569</v>
+        <v>2296.199833915571</v>
       </c>
       <c r="R31" t="n">
-        <v>2254.565128778474</v>
+        <v>2254.565128778476</v>
       </c>
       <c r="S31" t="n">
-        <v>2111.074996710678</v>
+        <v>2111.074996710679</v>
       </c>
       <c r="T31" t="n">
-        <v>1937.504133385581</v>
+        <v>1937.504133385582</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.597018616602</v>
+        <v>1696.597018616603</v>
       </c>
       <c r="V31" t="n">
-        <v>1490.108282516092</v>
+        <v>1490.108282516093</v>
       </c>
       <c r="W31" t="n">
-        <v>1248.886864584509</v>
+        <v>1248.88686458451</v>
       </c>
       <c r="X31" t="n">
-        <v>1069.093065791868</v>
+        <v>1069.093065791869</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.4962387537156</v>
+        <v>896.4962387537163</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1603.652891110493</v>
       </c>
       <c r="D32" t="n">
-        <v>1313.258240941186</v>
+        <v>1313.258240941185</v>
       </c>
       <c r="E32" t="n">
-        <v>995.3410367803843</v>
+        <v>995.3410367803842</v>
       </c>
       <c r="F32" t="n">
-        <v>652.2261804282198</v>
+        <v>652.2261804282195</v>
       </c>
       <c r="G32" t="n">
         <v>305.024778710659</v>
@@ -6701,22 +6701,22 @@
         <v>356.0710263877738</v>
       </c>
       <c r="K32" t="n">
-        <v>696.6140644476563</v>
+        <v>756.4108146511581</v>
       </c>
       <c r="L32" t="n">
-        <v>1147.648277696065</v>
+        <v>1273.965442473105</v>
       </c>
       <c r="M32" t="n">
-        <v>1681.18018236799</v>
+        <v>1807.497347145029</v>
       </c>
       <c r="N32" t="n">
-        <v>2294.47941400031</v>
+        <v>2360.999828573848</v>
       </c>
       <c r="O32" t="n">
-        <v>2863.972299453185</v>
+        <v>2930.492714026723</v>
       </c>
       <c r="P32" t="n">
-        <v>3325.267080383901</v>
+        <v>3391.787494957439</v>
       </c>
       <c r="Q32" t="n">
         <v>3640.073856713121</v>
@@ -6740,10 +6740,10 @@
         <v>2851.336144602146</v>
       </c>
       <c r="X32" t="n">
-        <v>2545.74143477851</v>
+        <v>2545.741434778509</v>
       </c>
       <c r="Y32" t="n">
-        <v>2223.473151240141</v>
+        <v>2223.47315124014</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>950.3439648057944</v>
+        <v>950.3439648057945</v>
       </c>
       <c r="C33" t="n">
-        <v>775.8909355246674</v>
+        <v>775.8909355246675</v>
       </c>
       <c r="D33" t="n">
-        <v>626.9565258634161</v>
+        <v>626.9565258634162</v>
       </c>
       <c r="E33" t="n">
         <v>467.7190708579607</v>
       </c>
       <c r="F33" t="n">
-        <v>321.1845128848456</v>
+        <v>321.1845128848457</v>
       </c>
       <c r="G33" t="n">
-        <v>184.8214127174637</v>
+        <v>184.8214127174638</v>
       </c>
       <c r="H33" t="n">
-        <v>94.31951835533127</v>
+        <v>94.31951835533135</v>
       </c>
       <c r="I33" t="n">
         <v>75.31222675686924</v>
@@ -6822,7 +6822,7 @@
         <v>1326.319600590816</v>
       </c>
       <c r="Y33" t="n">
-        <v>1118.559301825862</v>
+        <v>1118.559301825863</v>
       </c>
     </row>
     <row r="34">
@@ -6859,22 +6859,22 @@
         <v>153.6553948678466</v>
       </c>
       <c r="K34" t="n">
-        <v>382.1136216711337</v>
+        <v>318.4866637090548</v>
       </c>
       <c r="L34" t="n">
-        <v>765.1938346931677</v>
+        <v>701.5668767310888</v>
       </c>
       <c r="M34" t="n">
-        <v>999.1467305659033</v>
+        <v>935.5197726038244</v>
       </c>
       <c r="N34" t="n">
-        <v>1236.975982169289</v>
+        <v>1173.34902420721</v>
       </c>
       <c r="O34" t="n">
-        <v>1602.82599566324</v>
+        <v>1538.136466869266</v>
       </c>
       <c r="P34" t="n">
-        <v>1901.953910670437</v>
+        <v>1837.264381876464</v>
       </c>
       <c r="Q34" t="n">
         <v>1981.395092602516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
         <v>312.3844025601599</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7090,55 +7090,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954467</v>
+        <v>155.2189959588257</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>253.5298502264961</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371221</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364080003</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437848</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.395895681861</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460444</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
@@ -7172,10 +7172,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7208,7 +7208,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7327,31 +7327,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889411</v>
+        <v>253.529850226496</v>
       </c>
       <c r="L40" t="n">
-        <v>525.7713142112983</v>
+        <v>505.9475671746771</v>
       </c>
       <c r="M40" t="n">
-        <v>778.7529633821758</v>
+        <v>770.0879214996988</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120233</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,22 +7439,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7567,7 +7567,7 @@
         <v>67.83109325226762</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K43" t="n">
         <v>274.6725740832014</v>
@@ -7576,7 +7576,7 @@
         <v>527.0902910313825</v>
       </c>
       <c r="M43" t="n">
-        <v>791.2306453564042</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N43" t="n">
         <v>1038.10463155537</v>
@@ -7628,22 +7628,22 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
@@ -7676,10 +7676,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
         <v>312.3844025601599</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7804,28 +7804,28 @@
         <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>262.194892108973</v>
       </c>
       <c r="L46" t="n">
-        <v>602.6554402005011</v>
+        <v>514.6126090571541</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996988</v>
+        <v>778.7529633821758</v>
       </c>
       <c r="N46" t="n">
-        <v>941.3967585295463</v>
+        <v>950.0618004120233</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.02298077356</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -10039,13 +10039,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>160.5419057524247</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>145.0739112088638</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15.66848616570225</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10282,7 +10282,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>145.0739112088638</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>64.26965450715034</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10519,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>161.9683624952817</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.54449231445282</v>
+        <v>14.54449231445281</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>39.81459151591747</v>
       </c>
       <c r="C11" t="n">
-        <v>315.301966127226</v>
+        <v>315.3019661272259</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>331.9594444284801</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>234.7021814987457</v>
+        <v>246.8666554924501</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.17833490341435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>319.7601750346874</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.89262758449759</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.89262758449621</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>332.7629160196989</v>
       </c>
       <c r="C14" t="n">
-        <v>315.301966127226</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>331.9594444284801</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.35364162344456</v>
       </c>
       <c r="G14" t="n">
-        <v>361.1685289733152</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>246.8666554924501</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.17833490341437</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>154.9001530341869</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>38.39367452593299</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.89262758449854</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.89262758449691</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>265.9495333835467</v>
       </c>
       <c r="D17" t="n">
-        <v>96.15712301656649</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.46454031909093</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3278700478884</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>265.949533383547</v>
+        <v>265.9495333835479</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.6996071624323</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>272.6996071624337</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>55.02146440328352</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.47396720385242</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.2041755552967</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>272.6996071624333</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872408.1431094741</v>
+        <v>872408.1431094743</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919853.0150579966</v>
+        <v>919853.0150579965</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919853.0150579965</v>
+        <v>919853.0150579964</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933615.0327903116</v>
+        <v>933615.0327903115</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933615.0327903114</v>
+        <v>933615.0327903115</v>
       </c>
     </row>
     <row r="12">
@@ -26317,19 +26317,19 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491602.0170210074</v>
+        <v>491602.0170210076</v>
       </c>
       <c r="E2" t="n">
-        <v>447531.9067560931</v>
+        <v>447531.9067560933</v>
       </c>
       <c r="F2" t="n">
         <v>447531.9067560931</v>
       </c>
       <c r="G2" t="n">
-        <v>479923.3122041723</v>
+        <v>479923.3122041724</v>
       </c>
       <c r="H2" t="n">
-        <v>479923.3122041725</v>
+        <v>479923.3122041724</v>
       </c>
       <c r="I2" t="n">
         <v>492625.0619185705</v>
@@ -26338,22 +26338,22 @@
         <v>479600.9286804919</v>
       </c>
       <c r="K2" t="n">
-        <v>479600.9286804919</v>
+        <v>479600.928680492</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185706</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185705</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185707</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185705</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>161531.2365676469</v>
+        <v>161531.2365676493</v>
       </c>
       <c r="E3" t="n">
-        <v>948883.0584150413</v>
+        <v>948883.0584150392</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38171.0356674586</v>
+        <v>38171.03566745866</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58418.2093617965</v>
+        <v>58418.20936179673</v>
       </c>
       <c r="J3" t="n">
-        <v>28781.20082240121</v>
+        <v>28781.20082240115</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53753.87036245492</v>
+        <v>53753.87036245486</v>
       </c>
       <c r="M3" t="n">
         <v>187629.9396658821</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>401875.0986108224</v>
+        <v>401875.0986108214</v>
       </c>
       <c r="E4" t="n">
-        <v>70341.31299720013</v>
+        <v>70341.31299720018</v>
       </c>
       <c r="F4" t="n">
-        <v>70341.31299720006</v>
+        <v>70341.31299720018</v>
       </c>
       <c r="G4" t="n">
         <v>100213.0123637722</v>
@@ -26436,19 +26436,19 @@
         <v>100213.0123637722</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>82779.54623301415</v>
+        <v>82779.54623301406</v>
       </c>
       <c r="K4" t="n">
-        <v>82779.54623301403</v>
+        <v>82779.54623301406</v>
       </c>
       <c r="L4" t="n">
-        <v>94738.57160781967</v>
+        <v>94738.5716078197</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="N4" t="n">
         <v>93774.137826577</v>
@@ -26473,34 +26473,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37739.37416199957</v>
+        <v>37739.37416199963</v>
       </c>
       <c r="E5" t="n">
         <v>73291.34073659738</v>
       </c>
       <c r="F5" t="n">
-        <v>73291.34073659738</v>
+        <v>73291.34073659737</v>
       </c>
       <c r="G5" t="n">
         <v>77302.59173350685</v>
       </c>
       <c r="H5" t="n">
-        <v>77302.59173350688</v>
+        <v>77302.59173350685</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
-        <v>85005.675405064</v>
+        <v>85005.67540506399</v>
       </c>
       <c r="K5" t="n">
-        <v>85005.675405064</v>
+        <v>85005.67540506399</v>
       </c>
       <c r="L5" t="n">
         <v>86643.21706753103</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9682.17027937638</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9682.17027937638</v>
       </c>
       <c r="D6" t="n">
-        <v>-109543.6923194615</v>
+        <v>-109547.9550065359</v>
       </c>
       <c r="E6" t="n">
-        <v>-644983.8053927458</v>
+        <v>-645171.6935392539</v>
       </c>
       <c r="F6" t="n">
-        <v>303899.2530222955</v>
+        <v>303711.3648757852</v>
       </c>
       <c r="G6" t="n">
-        <v>264236.6724394346</v>
+        <v>264183.7484822914</v>
       </c>
       <c r="H6" t="n">
-        <v>302407.7081068933</v>
+        <v>302354.78414975</v>
       </c>
       <c r="I6" t="n">
-        <v>257914.1174239471</v>
+        <v>257914.1174239469</v>
       </c>
       <c r="J6" t="n">
-        <v>283034.5062200125</v>
+        <v>282980.2389981874</v>
       </c>
       <c r="K6" t="n">
-        <v>311815.7070424138</v>
+        <v>311761.4398205886</v>
       </c>
       <c r="L6" t="n">
-        <v>257489.4028807644</v>
+        <v>257489.4028807643</v>
       </c>
       <c r="M6" t="n">
-        <v>128702.3871198615</v>
+        <v>128702.3871198616</v>
       </c>
       <c r="N6" t="n">
-        <v>316332.3267857434</v>
+        <v>316332.3267857437</v>
       </c>
       <c r="O6" t="n">
-        <v>316332.3267857437</v>
+        <v>316332.3267857438</v>
       </c>
       <c r="P6" t="n">
-        <v>316332.3267857437</v>
+        <v>316332.3267857436</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F2" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="K2" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="L2" t="n">
         <v>67.19233795306857</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810495</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>188.6134936697052</v>
+        <v>188.613493669708</v>
       </c>
       <c r="E3" t="n">
         <v>1035.616620887045</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>765.0311291663279</v>
+        <v>765.0311291663278</v>
       </c>
       <c r="F4" t="n">
+        <v>765.0311291663276</v>
+      </c>
+      <c r="G4" t="n">
         <v>765.0311291663278</v>
-      </c>
-      <c r="G4" t="n">
-        <v>765.0311291663276</v>
       </c>
       <c r="H4" t="n">
         <v>765.0311291663278</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>941.4028344608654</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.71379458432347</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.19233795306864</v>
+        <v>67.19233795306857</v>
       </c>
       <c r="M2" t="n">
-        <v>30.49238227503632</v>
+        <v>30.49238227503638</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>188.6134936697052</v>
+        <v>188.613493669708</v>
       </c>
       <c r="E3" t="n">
-        <v>847.0031272173395</v>
+        <v>847.0031272173368</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54.16007970625333</v>
+        <v>54.16007970625355</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>765.0311291663279</v>
+        <v>765.0311291663278</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>66.37032623596485</v>
+        <v>66.37032623596508</v>
       </c>
       <c r="J4" t="n">
-        <v>110.0013790585728</v>
+        <v>110.0013790585725</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>655.0297501077554</v>
+        <v>655.0297501077553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.71379458432347</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>765.0311291663279</v>
+        <v>765.0311291663278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.7094234542802</v>
+        <v>331.7094234542801</v>
       </c>
       <c r="I8" t="n">
-        <v>181.2436414711042</v>
+        <v>181.2436414711037</v>
       </c>
       <c r="J8" t="n">
-        <v>116.6907909252827</v>
+        <v>116.6907909252817</v>
       </c>
       <c r="K8" t="n">
-        <v>123.6382180986981</v>
+        <v>123.6382180986967</v>
       </c>
       <c r="L8" t="n">
-        <v>116.1096354633259</v>
+        <v>116.1096354633242</v>
       </c>
       <c r="M8" t="n">
-        <v>97.20501063297877</v>
+        <v>97.20501063297684</v>
       </c>
       <c r="N8" t="n">
-        <v>94.11747682585855</v>
+        <v>94.11747682585658</v>
       </c>
       <c r="O8" t="n">
-        <v>102.3424253652383</v>
+        <v>102.3424253652364</v>
       </c>
       <c r="P8" t="n">
-        <v>122.1963880906637</v>
+        <v>122.1963880906621</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.4237384592761</v>
+        <v>140.4237384592749</v>
       </c>
       <c r="R8" t="n">
-        <v>167.9554177267769</v>
+        <v>167.9554177267762</v>
       </c>
       <c r="S8" t="n">
-        <v>191.741557075699</v>
+        <v>191.7415570756987</v>
       </c>
       <c r="T8" t="n">
-        <v>219.7766311981449</v>
+        <v>219.7766311981448</v>
       </c>
       <c r="U8" t="n">
         <v>251.2849932917819</v>
@@ -27947,40 +27947,40 @@
         <v>136.9378202145626</v>
       </c>
       <c r="H9" t="n">
-        <v>108.3172658113956</v>
+        <v>108.3172658113955</v>
       </c>
       <c r="I9" t="n">
-        <v>85.55430523295107</v>
+        <v>85.55430523295087</v>
       </c>
       <c r="J9" t="n">
-        <v>88.50816188233537</v>
+        <v>88.5081618823348</v>
       </c>
       <c r="K9" t="n">
-        <v>72.33027863060865</v>
+        <v>72.33027863060768</v>
       </c>
       <c r="L9" t="n">
-        <v>50.46654011837647</v>
+        <v>50.46654011837518</v>
       </c>
       <c r="M9" t="n">
-        <v>39.339679872029</v>
+        <v>39.33967987202749</v>
       </c>
       <c r="N9" t="n">
-        <v>25.82669735578756</v>
+        <v>25.82669735578601</v>
       </c>
       <c r="O9" t="n">
-        <v>46.07062000010012</v>
+        <v>46.0706200000987</v>
       </c>
       <c r="P9" t="n">
-        <v>56.5040839483715</v>
+        <v>56.50408394837038</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.1949144656149</v>
+        <v>88.19491446561415</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4907056961493</v>
+        <v>120.490705696149</v>
       </c>
       <c r="S9" t="n">
-        <v>164.1475282199586</v>
+        <v>164.1475282199584</v>
       </c>
       <c r="T9" t="n">
         <v>198.5294852921569</v>
@@ -28029,37 +28029,37 @@
         <v>159.2031725597515</v>
       </c>
       <c r="I10" t="n">
-        <v>145.2220579262847</v>
+        <v>145.2220579262846</v>
       </c>
       <c r="J10" t="n">
-        <v>102.9487470087519</v>
+        <v>102.9487470087515</v>
       </c>
       <c r="K10" t="n">
-        <v>89.49718523448897</v>
+        <v>89.49718523448837</v>
       </c>
       <c r="L10" t="n">
-        <v>84.31770783083896</v>
+        <v>84.31770783083822</v>
       </c>
       <c r="M10" t="n">
-        <v>85.61000572880627</v>
+        <v>85.61000572880549</v>
       </c>
       <c r="N10" t="n">
-        <v>75.6374962858537</v>
+        <v>75.63749628585293</v>
       </c>
       <c r="O10" t="n">
-        <v>90.38174173747267</v>
+        <v>90.38174173747197</v>
       </c>
       <c r="P10" t="n">
-        <v>96.59171028223358</v>
+        <v>96.59171028223297</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.0243640853204</v>
+        <v>123.0243640853199</v>
       </c>
       <c r="R10" t="n">
-        <v>162.0002382674914</v>
+        <v>162.0002382674912</v>
       </c>
       <c r="S10" t="n">
-        <v>218.0891870965653</v>
+        <v>218.0891870965652</v>
       </c>
       <c r="T10" t="n">
         <v>226.4923379196788</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="C11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="D11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="E11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="G11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="I11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="T11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="U11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="V11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="W11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="X11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Y11" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
     </row>
     <row r="12">
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="C12" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>18.56923394879001</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H12" t="n">
-        <v>11.19339871385489</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>22.82813024562923</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.37583523493555</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>49.97092564378158</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>49.97092564378158</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="C13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="D13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="E13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="G13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="I13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="J13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="K13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="L13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="M13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="N13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="O13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="P13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="R13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="S13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="T13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="U13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="V13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="W13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="X13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.97092564378158</v>
+        <v>49.97092564378163</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="C14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="D14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="E14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="G14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="I14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="T14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="U14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="V14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="W14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="X14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
     </row>
     <row r="15">
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>49.97092564378154</v>
+        <v>18.56923394878993</v>
       </c>
       <c r="G15" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H15" t="n">
-        <v>49.97092564378154</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.8281302456292</v>
+        <v>22.82813024562923</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.375835234935522</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.19339871385407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="C16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="D16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="E16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="F16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="G16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="H16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="I16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="J16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="K16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="L16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="M16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="N16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="O16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="P16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="R16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="S16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="T16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="U16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="V16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="W16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="X16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.97092564378154</v>
+        <v>49.97092564378163</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
         <v>49.97092564378158</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>70.38420121241289</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H18" t="n">
-        <v>90.72197443278634</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.82813024562923</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.37583523493555</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>93.62542089765934</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O19" t="n">
-        <v>85.9804471137044</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810501</v>
+        <v>85.98044711370612</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
-        <v>49.97092564378156</v>
+        <v>49.97092564378158</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.903446464872957</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>90.72197443278634</v>
       </c>
       <c r="I21" t="n">
-        <v>22.8281302456292</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.375835234935522</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>63.42145541709391</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.98044711370402</v>
+        <v>85.98044711370612</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810502</v>
+        <v>77.66073332242706</v>
       </c>
       <c r="M25" t="n">
-        <v>77.66073332242561</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="C26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="D26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="E26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="F26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="G26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="H26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="I26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="J26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="K26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="L26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="M26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="N26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="O26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="P26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Q26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="R26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="S26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="T26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="U26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="V26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="W26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="X26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="C28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="D28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="E28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="F28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="G28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="H28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="I28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="J28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="K28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="L28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="M28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="N28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="O28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="P28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="R28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="S28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="T28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="U28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="V28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="W28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="X28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.71379458432342</v>
+        <v>47.71379458432332</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="C29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="D29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="E29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="F29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="G29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="H29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="I29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="J29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="K29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="L29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="M29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="N29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="O29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="P29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Q29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="R29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="S29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="T29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="U29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="V29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="W29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="X29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="C31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="D31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="E31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="F31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="G31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="H31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="I31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="J31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="K31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="L31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="M31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="N31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="O31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="P31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="R31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="S31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="T31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="U31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="V31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="W31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="X31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.7137945843234</v>
+        <v>47.71379458432332</v>
       </c>
     </row>
     <row r="32">
@@ -29773,16 +29773,16 @@
         <v>67.19233795306857</v>
       </c>
       <c r="K32" t="n">
-        <v>6.791580171753651</v>
+        <v>67.19233795306857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>67.19233795306857</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>67.19233795306857</v>
+        <v>6.791580171753708</v>
       </c>
       <c r="O32" t="n">
         <v>67.19233795306857</v>
@@ -29791,7 +29791,7 @@
         <v>67.19233795306857</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.19233795306857</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>67.19233795306857</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416026</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>86.41330088048525</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30399,19 +30399,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>76.32843350416019</v>
+      </c>
+      <c r="L40" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>86.41330088048454</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810495</v>
@@ -30481,7 +30481,7 @@
         <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30639,19 +30639,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
+        <v>76.32843350416019</v>
+      </c>
+      <c r="N43" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="N43" t="n">
-        <v>76.32843350416022</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30876,16 +30876,16 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.08100106221775</v>
+      </c>
+      <c r="L46" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="L46" t="n">
-        <v>76.32843350416013</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810495</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7582452006822314</v>
+        <v>0.7582452006822425</v>
       </c>
       <c r="H8" t="n">
-        <v>7.765378661486904</v>
+        <v>7.765378661487018</v>
       </c>
       <c r="I8" t="n">
-        <v>29.23224809930176</v>
+        <v>29.23224809930218</v>
       </c>
       <c r="J8" t="n">
-        <v>64.3551136014036</v>
+        <v>64.35511360140454</v>
       </c>
       <c r="K8" t="n">
-        <v>96.45163294628247</v>
+        <v>96.45163294628388</v>
       </c>
       <c r="L8" t="n">
-        <v>119.6567795066613</v>
+        <v>119.6567795066631</v>
       </c>
       <c r="M8" t="n">
-        <v>133.141222594294</v>
+        <v>133.1412225942959</v>
       </c>
       <c r="N8" t="n">
-        <v>135.2955867707324</v>
+        <v>135.2955867707343</v>
       </c>
       <c r="O8" t="n">
-        <v>127.7557860564484</v>
+        <v>127.7557860564503</v>
       </c>
       <c r="P8" t="n">
-        <v>109.0366076646058</v>
+        <v>109.0366076646074</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.88195141517338</v>
+        <v>81.88195141517457</v>
       </c>
       <c r="R8" t="n">
-        <v>47.63012008735526</v>
+        <v>47.63012008735596</v>
       </c>
       <c r="S8" t="n">
-        <v>17.27851251054637</v>
+        <v>17.27851251054662</v>
       </c>
       <c r="T8" t="n">
-        <v>3.31921836598647</v>
+        <v>3.319218365986518</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0606596160545785</v>
+        <v>0.06065961605457939</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4056969486480452</v>
+        <v>0.4056969486480511</v>
       </c>
       <c r="H9" t="n">
-        <v>3.918178425100858</v>
+        <v>3.918178425100915</v>
       </c>
       <c r="I9" t="n">
-        <v>13.96807476704893</v>
+        <v>13.96807476704913</v>
       </c>
       <c r="J9" t="n">
-        <v>38.32946478433133</v>
+        <v>38.32946478433189</v>
       </c>
       <c r="K9" t="n">
-        <v>65.51116034375035</v>
+        <v>65.51116034375131</v>
       </c>
       <c r="L9" t="n">
-        <v>88.08783966149771</v>
+        <v>88.087839661499</v>
       </c>
       <c r="M9" t="n">
-        <v>102.7943540499893</v>
+        <v>102.7943540499908</v>
       </c>
       <c r="N9" t="n">
-        <v>105.5150147275457</v>
+        <v>105.5150147275473</v>
       </c>
       <c r="O9" t="n">
-        <v>96.52562444434432</v>
+        <v>96.52562444434574</v>
       </c>
       <c r="P9" t="n">
-        <v>77.47032346595874</v>
+        <v>77.47032346595986</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.78685962040662</v>
+        <v>51.78685962040737</v>
       </c>
       <c r="R9" t="n">
-        <v>25.1887982678146</v>
+        <v>25.18879826781497</v>
       </c>
       <c r="S9" t="n">
-        <v>7.535642883879255</v>
+        <v>7.535642883879365</v>
       </c>
       <c r="T9" t="n">
-        <v>1.635243402664708</v>
+        <v>1.635243402664732</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02669058872684509</v>
+        <v>0.02669058872684548</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.340122693502747</v>
+        <v>0.340122693502752</v>
       </c>
       <c r="H10" t="n">
-        <v>3.023999947688063</v>
+        <v>3.023999947688107</v>
       </c>
       <c r="I10" t="n">
-        <v>10.22841700097352</v>
+        <v>10.22841700097367</v>
       </c>
       <c r="J10" t="n">
-        <v>24.04667443064422</v>
+        <v>24.04667443064457</v>
       </c>
       <c r="K10" t="n">
-        <v>39.51607293604642</v>
+        <v>39.516072936047</v>
       </c>
       <c r="L10" t="n">
-        <v>50.56696845039933</v>
+        <v>50.56696845040007</v>
       </c>
       <c r="M10" t="n">
-        <v>53.31577821879879</v>
+        <v>53.31577821879957</v>
       </c>
       <c r="N10" t="n">
-        <v>52.0480481793795</v>
+        <v>52.04804817938026</v>
       </c>
       <c r="O10" t="n">
-        <v>48.07479671437012</v>
+        <v>48.07479671437082</v>
       </c>
       <c r="P10" t="n">
-        <v>41.13629376691404</v>
+        <v>41.13629376691465</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.48063754412549</v>
+        <v>28.4806375441259</v>
       </c>
       <c r="R10" t="n">
-        <v>15.29315310967806</v>
+        <v>15.29315310967828</v>
       </c>
       <c r="S10" t="n">
-        <v>5.927410940406962</v>
+        <v>5.927410940407049</v>
       </c>
       <c r="T10" t="n">
-        <v>1.453251508602646</v>
+        <v>1.453251508602667</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01855214691833168</v>
+        <v>0.01855214691833195</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.163282898038369</v>
+        <v>4.163282898038368</v>
       </c>
       <c r="H14" t="n">
-        <v>42.63722097953546</v>
+        <v>42.63722097953544</v>
       </c>
       <c r="I14" t="n">
-        <v>160.5049639266244</v>
+        <v>160.5049639266243</v>
       </c>
       <c r="J14" t="n">
-        <v>353.3534318673843</v>
+        <v>353.3534318673842</v>
       </c>
       <c r="K14" t="n">
-        <v>529.5851969413485</v>
+        <v>529.5851969413484</v>
       </c>
       <c r="L14" t="n">
-        <v>656.9972659321904</v>
+        <v>656.9972659321903</v>
       </c>
       <c r="M14" t="n">
-        <v>731.0360481701803</v>
+        <v>731.03604817018</v>
       </c>
       <c r="N14" t="n">
-        <v>742.8649757042318</v>
+        <v>742.8649757042316</v>
       </c>
       <c r="O14" t="n">
-        <v>701.4663313868627</v>
+        <v>701.4663313868625</v>
       </c>
       <c r="P14" t="n">
-        <v>598.6852848415404</v>
+        <v>598.6852848415402</v>
       </c>
       <c r="Q14" t="n">
-        <v>449.5877160555412</v>
+        <v>449.5877160555411</v>
       </c>
       <c r="R14" t="n">
-        <v>261.5218193439029</v>
+        <v>261.5218193439028</v>
       </c>
       <c r="S14" t="n">
-        <v>94.87080903904942</v>
+        <v>94.8708090390494</v>
       </c>
       <c r="T14" t="n">
-        <v>18.22477088616297</v>
+        <v>18.22477088616296</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3330626318430694</v>
+        <v>0.3330626318430693</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>2.227552731719304</v>
       </c>
       <c r="H15" t="n">
-        <v>21.51346980371013</v>
+        <v>21.51346980371012</v>
       </c>
       <c r="I15" t="n">
-        <v>76.6942497543708</v>
+        <v>76.69424975437077</v>
       </c>
       <c r="J15" t="n">
         <v>210.4548833068664</v>
       </c>
       <c r="K15" t="n">
-        <v>359.7009163320598</v>
+        <v>359.7009163320597</v>
       </c>
       <c r="L15" t="n">
-        <v>483.6622718586148</v>
+        <v>483.6622718586147</v>
       </c>
       <c r="M15" t="n">
-        <v>564.4110583834395</v>
+        <v>564.4110583834394</v>
       </c>
       <c r="N15" t="n">
-        <v>579.349339641329</v>
+        <v>579.3493396413289</v>
       </c>
       <c r="O15" t="n">
-        <v>529.9914606911276</v>
+        <v>529.9914606911275</v>
       </c>
       <c r="P15" t="n">
-        <v>425.3648720771714</v>
+        <v>425.3648720771713</v>
       </c>
       <c r="Q15" t="n">
-        <v>284.3451522103449</v>
+        <v>284.3451522103448</v>
       </c>
       <c r="R15" t="n">
         <v>138.3036687290284</v>
       </c>
       <c r="S15" t="n">
-        <v>41.37581499487389</v>
+        <v>41.37581499487388</v>
       </c>
       <c r="T15" t="n">
-        <v>8.978600703728246</v>
+        <v>8.978600703728244</v>
       </c>
       <c r="U15" t="n">
         <v>0.1465495218236385</v>
@@ -32145,28 +32145,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.867505381927458</v>
+        <v>1.867505381927457</v>
       </c>
       <c r="H16" t="n">
         <v>16.6038205775005</v>
       </c>
       <c r="I16" t="n">
-        <v>56.16098003105484</v>
+        <v>56.16098003105483</v>
       </c>
       <c r="J16" t="n">
-        <v>132.0326305022713</v>
+        <v>132.0326305022712</v>
       </c>
       <c r="K16" t="n">
-        <v>216.9701707366628</v>
+        <v>216.9701707366627</v>
       </c>
       <c r="L16" t="n">
-        <v>277.6471183276514</v>
+        <v>277.6471183276513</v>
       </c>
       <c r="M16" t="n">
-        <v>292.739957277956</v>
+        <v>292.7399572779559</v>
       </c>
       <c r="N16" t="n">
-        <v>285.7792553998629</v>
+        <v>285.7792553998628</v>
       </c>
       <c r="O16" t="n">
         <v>263.9633970746193</v>
@@ -32178,13 +32178,13 @@
         <v>156.3781097539438</v>
       </c>
       <c r="R16" t="n">
-        <v>83.96983290012004</v>
+        <v>83.96983290012002</v>
       </c>
       <c r="S16" t="n">
-        <v>32.54552561049942</v>
+        <v>32.54552561049941</v>
       </c>
       <c r="T16" t="n">
-        <v>7.979341177326409</v>
+        <v>7.979341177326408</v>
       </c>
       <c r="U16" t="n">
         <v>0.101863929923316</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.163282898038369</v>
+        <v>4.163282898038368</v>
       </c>
       <c r="H20" t="n">
-        <v>42.63722097953546</v>
+        <v>42.63722097953544</v>
       </c>
       <c r="I20" t="n">
-        <v>160.5049639266244</v>
+        <v>160.5049639266243</v>
       </c>
       <c r="J20" t="n">
-        <v>353.3534318673843</v>
+        <v>353.3534318673842</v>
       </c>
       <c r="K20" t="n">
-        <v>529.5851969413485</v>
+        <v>529.5851969413484</v>
       </c>
       <c r="L20" t="n">
-        <v>656.9972659321904</v>
+        <v>656.9972659321903</v>
       </c>
       <c r="M20" t="n">
-        <v>731.0360481701803</v>
+        <v>731.03604817018</v>
       </c>
       <c r="N20" t="n">
-        <v>742.8649757042318</v>
+        <v>742.8649757042316</v>
       </c>
       <c r="O20" t="n">
-        <v>701.4663313868627</v>
+        <v>701.4663313868625</v>
       </c>
       <c r="P20" t="n">
-        <v>598.6852848415404</v>
+        <v>598.6852848415402</v>
       </c>
       <c r="Q20" t="n">
-        <v>449.5877160555412</v>
+        <v>449.5877160555411</v>
       </c>
       <c r="R20" t="n">
-        <v>261.5218193439029</v>
+        <v>261.5218193439028</v>
       </c>
       <c r="S20" t="n">
-        <v>94.87080903904942</v>
+        <v>94.8708090390494</v>
       </c>
       <c r="T20" t="n">
-        <v>18.22477088616297</v>
+        <v>18.22477088616296</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3330626318430694</v>
+        <v>0.3330626318430693</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>2.227552731719304</v>
       </c>
       <c r="H21" t="n">
-        <v>21.51346980371013</v>
+        <v>21.51346980371012</v>
       </c>
       <c r="I21" t="n">
-        <v>76.6942497543708</v>
+        <v>76.69424975437077</v>
       </c>
       <c r="J21" t="n">
         <v>210.4548833068664</v>
       </c>
       <c r="K21" t="n">
-        <v>359.7009163320598</v>
+        <v>359.7009163320597</v>
       </c>
       <c r="L21" t="n">
-        <v>483.6622718586148</v>
+        <v>483.6622718586147</v>
       </c>
       <c r="M21" t="n">
-        <v>564.4110583834395</v>
+        <v>564.4110583834394</v>
       </c>
       <c r="N21" t="n">
-        <v>579.349339641329</v>
+        <v>579.3493396413289</v>
       </c>
       <c r="O21" t="n">
-        <v>529.9914606911276</v>
+        <v>529.9914606911275</v>
       </c>
       <c r="P21" t="n">
-        <v>425.3648720771714</v>
+        <v>425.3648720771713</v>
       </c>
       <c r="Q21" t="n">
-        <v>284.3451522103449</v>
+        <v>284.3451522103448</v>
       </c>
       <c r="R21" t="n">
         <v>138.3036687290284</v>
       </c>
       <c r="S21" t="n">
-        <v>41.37581499487389</v>
+        <v>41.37581499487388</v>
       </c>
       <c r="T21" t="n">
-        <v>8.978600703728246</v>
+        <v>8.978600703728244</v>
       </c>
       <c r="U21" t="n">
         <v>0.1465495218236385</v>
@@ -32619,28 +32619,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.867505381927458</v>
+        <v>1.867505381927457</v>
       </c>
       <c r="H22" t="n">
         <v>16.6038205775005</v>
       </c>
       <c r="I22" t="n">
-        <v>56.16098003105484</v>
+        <v>56.16098003105483</v>
       </c>
       <c r="J22" t="n">
-        <v>132.0326305022713</v>
+        <v>132.0326305022712</v>
       </c>
       <c r="K22" t="n">
-        <v>216.9701707366628</v>
+        <v>216.9701707366627</v>
       </c>
       <c r="L22" t="n">
-        <v>277.6471183276514</v>
+        <v>277.6471183276513</v>
       </c>
       <c r="M22" t="n">
-        <v>292.739957277956</v>
+        <v>292.7399572779559</v>
       </c>
       <c r="N22" t="n">
-        <v>285.7792553998629</v>
+        <v>285.7792553998628</v>
       </c>
       <c r="O22" t="n">
         <v>263.9633970746193</v>
@@ -32652,13 +32652,13 @@
         <v>156.3781097539438</v>
       </c>
       <c r="R22" t="n">
-        <v>83.96983290012004</v>
+        <v>83.96983290012002</v>
       </c>
       <c r="S22" t="n">
-        <v>32.54552561049942</v>
+        <v>32.54552561049941</v>
       </c>
       <c r="T22" t="n">
-        <v>7.979341177326409</v>
+        <v>7.979341177326408</v>
       </c>
       <c r="U22" t="n">
         <v>0.101863929923316</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.64437602938006</v>
+        <v>88.6443760293801</v>
       </c>
       <c r="K13" t="n">
         <v>244.6716045545615</v>
@@ -35574,16 +35574,16 @@
         <v>355.2080692317491</v>
       </c>
       <c r="M13" t="n">
-        <v>382.294759883578</v>
+        <v>382.2947598835781</v>
       </c>
       <c r="N13" t="n">
         <v>379.8823534228731</v>
       </c>
       <c r="O13" t="n">
-        <v>338.5194506324405</v>
+        <v>338.5194506324406</v>
       </c>
       <c r="P13" t="n">
-        <v>273.115772191974</v>
+        <v>273.1157721919741</v>
       </c>
       <c r="Q13" t="n">
         <v>120.186992146031</v>
@@ -35647,28 +35647,28 @@
         <v>172.307527340698</v>
       </c>
       <c r="K14" t="n">
-        <v>309.495345896368</v>
+        <v>309.4953458963678</v>
       </c>
       <c r="L14" t="n">
-        <v>421.2308509622032</v>
+        <v>421.2308509622031</v>
       </c>
       <c r="M14" t="n">
-        <v>500.6898149429076</v>
+        <v>500.6898149429073</v>
       </c>
       <c r="N14" t="n">
-        <v>513.451912107641</v>
+        <v>513.4519121076407</v>
       </c>
       <c r="O14" t="n">
-        <v>471.368119965176</v>
+        <v>471.3681199651758</v>
       </c>
       <c r="P14" t="n">
-        <v>367.4522890862708</v>
+        <v>367.4522890862707</v>
       </c>
       <c r="Q14" t="n">
-        <v>227.2820261810917</v>
+        <v>227.2820261810916</v>
       </c>
       <c r="R14" t="n">
-        <v>45.93628152977078</v>
+        <v>45.93628152977072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.61725664019971</v>
+        <v>83.61725664019968</v>
       </c>
       <c r="K15" t="n">
-        <v>221.8594773577008</v>
+        <v>221.8594773577007</v>
       </c>
       <c r="L15" t="n">
-        <v>345.1078920787406</v>
+        <v>345.1078920787405</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2770244614211</v>
+        <v>422.277024461421</v>
       </c>
       <c r="N15" t="n">
-        <v>448.0076275579958</v>
+        <v>448.0076275579956</v>
       </c>
       <c r="O15" t="n">
-        <v>387.3952162466832</v>
+        <v>387.395216246683</v>
       </c>
       <c r="P15" t="n">
-        <v>291.3904646628412</v>
+        <v>291.3904646628411</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.3633781243234</v>
+        <v>144.3633781243233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.64437602938004</v>
+        <v>88.6443760293801</v>
       </c>
       <c r="K16" t="n">
         <v>244.6716045545615</v>
@@ -35817,13 +35817,13 @@
         <v>379.8823534228731</v>
       </c>
       <c r="O16" t="n">
-        <v>338.5194506324405</v>
+        <v>338.5194506324406</v>
       </c>
       <c r="P16" t="n">
-        <v>273.115772191974</v>
+        <v>273.1157721919741</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.1869921460309</v>
+        <v>120.186992146031</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36042,28 +36042,28 @@
         <v>102.7219292909801</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6416327942324</v>
+        <v>87.95691256612736</v>
       </c>
       <c r="L19" t="n">
         <v>240.447162274518</v>
       </c>
       <c r="M19" t="n">
-        <v>251.4988935584558</v>
+        <v>251.4988935584557</v>
       </c>
       <c r="N19" t="n">
-        <v>158.0937109346297</v>
+        <v>255.7784311627346</v>
       </c>
       <c r="O19" t="n">
-        <v>211.4873057364809</v>
+        <v>223.1915788508814</v>
       </c>
       <c r="P19" t="n">
         <v>185.8230034622563</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.5578283526029</v>
+        <v>90.85355523820404</v>
       </c>
       <c r="R19" t="n">
-        <v>4.361161751055548</v>
+        <v>4.361161751055491</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>172.307527340698</v>
       </c>
       <c r="K20" t="n">
-        <v>309.495345896368</v>
+        <v>309.4953458963678</v>
       </c>
       <c r="L20" t="n">
-        <v>421.2308509622032</v>
+        <v>421.2308509622031</v>
       </c>
       <c r="M20" t="n">
-        <v>500.6898149429076</v>
+        <v>500.6898149429073</v>
       </c>
       <c r="N20" t="n">
-        <v>513.451912107641</v>
+        <v>513.4519121076407</v>
       </c>
       <c r="O20" t="n">
-        <v>471.368119965176</v>
+        <v>471.3681199651758</v>
       </c>
       <c r="P20" t="n">
-        <v>367.4522890862708</v>
+        <v>367.4522890862707</v>
       </c>
       <c r="Q20" t="n">
-        <v>227.2820261810917</v>
+        <v>227.2820261810916</v>
       </c>
       <c r="R20" t="n">
-        <v>45.93628152977078</v>
+        <v>45.93628152977072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>83.61725664019971</v>
+        <v>83.61725664019968</v>
       </c>
       <c r="K21" t="n">
-        <v>221.8594773577008</v>
+        <v>221.8594773577007</v>
       </c>
       <c r="L21" t="n">
-        <v>345.1078920787406</v>
+        <v>345.1078920787405</v>
       </c>
       <c r="M21" t="n">
-        <v>422.2770244614211</v>
+        <v>422.277024461421</v>
       </c>
       <c r="N21" t="n">
-        <v>448.0076275579958</v>
+        <v>448.0076275579956</v>
       </c>
       <c r="O21" t="n">
-        <v>387.3952162466832</v>
+        <v>387.395216246683</v>
       </c>
       <c r="P21" t="n">
-        <v>291.3904646628412</v>
+        <v>291.3904646628411</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.3633781243234</v>
+        <v>144.3633781243233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.7219292909802</v>
+        <v>102.7219292909801</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6416327942324</v>
+        <v>87.95691256612736</v>
       </c>
       <c r="L22" t="n">
-        <v>240.4471622745181</v>
+        <v>240.447162274518</v>
       </c>
       <c r="M22" t="n">
-        <v>251.4988935584559</v>
+        <v>251.4988935584557</v>
       </c>
       <c r="N22" t="n">
-        <v>255.7784311627347</v>
+        <v>255.7784311627346</v>
       </c>
       <c r="O22" t="n">
-        <v>125.5068586227765</v>
+        <v>223.1915788508814</v>
       </c>
       <c r="P22" t="n">
-        <v>185.8230034622564</v>
+        <v>185.8230034622563</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.85355523820196</v>
+        <v>90.85355523820404</v>
       </c>
       <c r="R22" t="n">
-        <v>4.361161751055562</v>
+        <v>4.361161751055491</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567487</v>
+        <v>234.9434039510708</v>
       </c>
       <c r="M25" t="n">
-        <v>246.7844518064638</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.136864811397459</v>
+        <v>6.136864811397373</v>
       </c>
       <c r="J26" t="n">
-        <v>238.500795553036</v>
+        <v>238.5007955530359</v>
       </c>
       <c r="K26" t="n">
-        <v>384.9050811397239</v>
+        <v>384.9050811397238</v>
       </c>
       <c r="L26" t="n">
-        <v>503.3039089766556</v>
+        <v>503.3039089766555</v>
       </c>
       <c r="M26" t="n">
-        <v>586.6349104145502</v>
+        <v>586.6349104145501</v>
       </c>
       <c r="N26" t="n">
-        <v>600.0156299972349</v>
+        <v>600.0156299972348</v>
       </c>
       <c r="O26" t="n">
-        <v>555.7667954725425</v>
+        <v>555.7667954725424</v>
       </c>
       <c r="P26" t="n">
-        <v>446.4757808036953</v>
+        <v>446.4757808036952</v>
       </c>
       <c r="Q26" t="n">
-        <v>298.5080993880429</v>
+        <v>298.5080993880428</v>
       </c>
       <c r="R26" t="n">
-        <v>107.3269931265482</v>
+        <v>107.3269931265481</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.29221119738965</v>
+        <v>93.29221119738955</v>
       </c>
       <c r="K28" t="n">
-        <v>253.761454128643</v>
+        <v>253.7614541286429</v>
       </c>
       <c r="L28" t="n">
-        <v>367.4711667545216</v>
+        <v>367.4711667545214</v>
       </c>
       <c r="M28" t="n">
-        <v>377.3794188207863</v>
+        <v>395.3471739778072</v>
       </c>
       <c r="N28" t="n">
-        <v>392.5707407518635</v>
+        <v>392.5707407518634</v>
       </c>
       <c r="O28" t="n">
-        <v>350.0669248069632</v>
+        <v>332.0991696499445</v>
       </c>
       <c r="P28" t="n">
         <v>282.6708657294338</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.1080331222171</v>
+        <v>126.108033122217</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.136864811397487</v>
+        <v>6.136864811397402</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5007955530361</v>
+        <v>238.5007955530359</v>
       </c>
       <c r="K29" t="n">
-        <v>384.905081139724</v>
+        <v>384.9050811397238</v>
       </c>
       <c r="L29" t="n">
-        <v>503.3039089766557</v>
+        <v>503.3039089766554</v>
       </c>
       <c r="M29" t="n">
-        <v>586.6349104145502</v>
+        <v>586.6349104145501</v>
       </c>
       <c r="N29" t="n">
-        <v>600.015629997235</v>
+        <v>600.0156299972348</v>
       </c>
       <c r="O29" t="n">
-        <v>555.7667954725413</v>
+        <v>555.7667954725425</v>
       </c>
       <c r="P29" t="n">
-        <v>446.4757808036954</v>
+        <v>446.4757808036952</v>
       </c>
       <c r="Q29" t="n">
-        <v>298.508099388043</v>
+        <v>298.5080993880428</v>
       </c>
       <c r="R29" t="n">
-        <v>107.3269931265482</v>
+        <v>107.3269931265481</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>75.32445604036856</v>
+        <v>93.29221119738955</v>
       </c>
       <c r="K31" t="n">
-        <v>253.761454128643</v>
+        <v>253.7614541286429</v>
       </c>
       <c r="L31" t="n">
-        <v>367.4711667545216</v>
+        <v>367.4711667545214</v>
       </c>
       <c r="M31" t="n">
-        <v>395.3471739778073</v>
+        <v>395.3471739778072</v>
       </c>
       <c r="N31" t="n">
-        <v>392.5707407518635</v>
+        <v>392.5707407518634</v>
       </c>
       <c r="O31" t="n">
-        <v>350.0669248069632</v>
+        <v>332.0991696499445</v>
       </c>
       <c r="P31" t="n">
-        <v>282.6708657294339</v>
+        <v>282.6708657294338</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.1080331222171</v>
+        <v>126.108033122217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>257.9793389217812</v>
       </c>
       <c r="K32" t="n">
-        <v>343.9828667271541</v>
+        <v>404.3836245084691</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>522.7824523454008</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>619.49417336598</v>
+        <v>559.0934155846652</v>
       </c>
       <c r="O32" t="n">
         <v>575.2453388412878</v>
@@ -37087,7 +37087,7 @@
         <v>465.9543241724405</v>
       </c>
       <c r="Q32" t="n">
-        <v>317.9866427567881</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>126.8055364952934</v>
@@ -37227,7 +37227,7 @@
         <v>79.13451324341146</v>
       </c>
       <c r="K34" t="n">
-        <v>230.765885659886</v>
+        <v>166.4962311527356</v>
       </c>
       <c r="L34" t="n">
         <v>386.9497101232667</v>
@@ -37239,13 +37239,13 @@
         <v>240.2315672761469</v>
       </c>
       <c r="O34" t="n">
-        <v>369.5454681757084</v>
+        <v>368.4721643051076</v>
       </c>
       <c r="P34" t="n">
         <v>302.149409098179</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.24361811321077</v>
+        <v>145.5865764909622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>88.27060879450315</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>255.5370193645234</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37695,19 +37695,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038272</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>255.5370193645227</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
         <v>173.0392293230783</v>
@@ -37722,7 +37722,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,19 +37935,19 @@
         <v>1.332299818266854</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881984</v>
       </c>
       <c r="N43" t="n">
-        <v>249.3676628272385</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38172,16 +38172,16 @@
         <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>184.3848942618848</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328038</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
         <v>173.0392293230783</v>
@@ -38196,7 +38196,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
